--- a/data/discussions_history.xlsx
+++ b/data/discussions_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/axel_cano_bayer_com/Documents/desktop/Axel/Code/Projets/byr_HSE_subjects/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABDACC104855D91F74005BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6FDC43E-8ADC-410F-8C1A-4742A707C897}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC104855D91F74005BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE6C24F-4C6C-4CCF-A67A-65D538CB0B8D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/discussions_history.xlsx
+++ b/data/discussions_history.xlsx
@@ -1,164 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/axel_cano_bayer_com/Documents/desktop/Axel/Code/Projets/byr_HSE_subjects/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC104855D91F74005BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE6C24F-4C6C-4CCF-A67A-65D538CB0B8D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>PROC02</t>
-  </si>
-  <si>
-    <t>PROC15</t>
-  </si>
-  <si>
-    <t>PROC12</t>
-  </si>
-  <si>
-    <t>PROC13</t>
-  </si>
-  <si>
-    <t>PROC198</t>
-  </si>
-  <si>
-    <t>PROC27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROC16 </t>
-  </si>
-  <si>
-    <t>PROC17 DR01</t>
-  </si>
-  <si>
-    <t>PROC17 (p.1 à 14)</t>
-  </si>
-  <si>
-    <t>PROC171</t>
-  </si>
-  <si>
-    <t>PROC21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PROC20 DR09 + DR10</t>
-  </si>
-  <si>
-    <t>PROC20 DR03</t>
-  </si>
-  <si>
-    <t>PROC20 DR05</t>
-  </si>
-  <si>
-    <t>PROC20 DR07 + DR08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROC15 </t>
-  </si>
-  <si>
-    <t>PROC17 (p.15 à fin)</t>
-  </si>
-  <si>
-    <t>PROC300 + DR01 + DR02</t>
-  </si>
-  <si>
-    <t>PROC21 + DR02 + DR03</t>
-  </si>
-  <si>
-    <t>PROCXXX</t>
-  </si>
-  <si>
-    <t>PROC20 (p.1 à 7)</t>
-  </si>
-  <si>
-    <t>PROC20 (p.8 à 14)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -175,49 +76,108 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -483,280 +443,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col width="24.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.7109375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" style="1" min="3" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PROC02</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>44713</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PROC15</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>44743</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>PROC12</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>44805</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>PROC13</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>44835</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>PROC198</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>44866</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>PROC27</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>44896</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PROC16 </t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>44927</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PROC17 DR01</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n">
         <v>44958</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>PROC17 (p.1 à 14)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n">
         <v>44986</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>PROC171</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n">
         <v>45017</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>PROC21</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
         <v>45047</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PROC20 DR09 + DR10</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
         <v>45078</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>PROC20 DR03</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
         <v>45108</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>PROC20 DR05</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
         <v>45139</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>PROC13</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
         <v>45170</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>PROC20 DR07 + DR08</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PROC15 </t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
         <v>45231</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="8">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>PROC12</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n">
         <v>45261</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="8">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>PROC17 (p.1 à 14)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n">
         <v>45292</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>PROC17 (p.15 à fin)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n">
         <v>45323</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>PROC12</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="n">
         <v>45352</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>PROC300 + DR01 + DR02</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
         <v>45383</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="8">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PROC20 DR09 + DR10</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
         <v>45413</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="8">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>PROC198</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
         <v>45444</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>PROC02</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n">
         <v>45474</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>PROC198</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n">
         <v>45505</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="8">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>PROC13</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n">
         <v>45536</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="8">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>PROC21 + DR02 + DR03</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n">
         <v>45566</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="8">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>PROCXXX</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
         <v>45597</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="8">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>PROC20 (p.1 à 7)</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="n">
         <v>45627</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="8">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>PROC20 (p.8 à 14)</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="n">
         <v>45658</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PROC17 DR04</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PROC18</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PROC19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;22&amp;KFF8939 RESTRICTED</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;R&amp;"Calibri"&amp;22 &amp;KFF8939_x000d_# RESTRICTED</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>